--- a/capability_excel.xlsx
+++ b/capability_excel.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://1und1net-my.sharepoint.com/personal/cenk_mola_1und1_net/Documents/Dokumente/RCM_Dev/capability-map-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AE67FB5-DA52-4141-99C3-0B275AEBCC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3AE67FB5-DA52-4141-99C3-0B275AEBCC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D67E7DA-C4E8-417B-8660-99CFF7D308BA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC71A526-C272-4CF8-9074-C2A0F809FE6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AC71A526-C272-4CF8-9074-C2A0F809FE6C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Application" sheetId="1" r:id="rId1"/>
+    <sheet name="Applications" sheetId="1" r:id="rId1"/>
     <sheet name="Matrix" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -807,7 +807,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
